--- a/indexer_lib/data/Poupança antiga mensal.xlsx
+++ b/indexer_lib/data/Poupança antiga mensal.xlsx
@@ -479,6 +479,15 @@
       <c r="E2" s="2">
         <v>0.5</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O2" t="s">
         <v>1</v>
       </c>

--- a/indexer_lib/data/Poupança antiga mensal.xlsx
+++ b/indexer_lib/data/Poupança antiga mensal.xlsx
@@ -488,6 +488,9 @@
       <c r="H2" s="2">
         <v>0.5</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O2" t="s">
         <v>1</v>
       </c>

--- a/indexer_lib/data/Poupança antiga mensal.xlsx
+++ b/indexer_lib/data/Poupança antiga mensal.xlsx
@@ -491,6 +491,9 @@
       <c r="I2" s="2">
         <v>0.5</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O2" t="s">
         <v>1</v>
       </c>

--- a/indexer_lib/data/Poupança antiga mensal.xlsx
+++ b/indexer_lib/data/Poupança antiga mensal.xlsx
@@ -494,6 +494,9 @@
       <c r="J2" s="2">
         <v>0.5</v>
       </c>
+      <c r="K2" s="2">
+        <v>0.5</v>
+      </c>
       <c r="O2" t="s">
         <v>1</v>
       </c>
